--- a/src/test/java/ApachePOI/resource/CucumberTestSonuclari.xlsx
+++ b/src/test/java/ApachePOI/resource/CucumberTestSonuclari.xlsx
@@ -12,9 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Create and Delete CitizenShip from excel  Failed</t>
+  </si>
+  <si>
+    <t>Login with valid username and password Passed</t>
+  </si>
+  <si>
+    <t>Create a country Passed</t>
+  </si>
+  <si>
+    <t>Create a citizenShip Passed</t>
+  </si>
+  <si>
+    <t>Create a Country Passed</t>
+  </si>
+  <si>
+    <t>Create a Country 2  Failed</t>
+  </si>
+  <si>
+    <t>Create a Citizenship with parameter  Failed</t>
+  </si>
+  <si>
+    <t>States testing with JDBC  Failed</t>
+  </si>
+  <si>
+    <t>States testing with JDBC Passed</t>
   </si>
 </sst>
 </file>
@@ -59,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,6 +94,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
